--- a/BackTest/2019-10-26 BackTest DVP.xlsx
+++ b/BackTest/2019-10-26 BackTest DVP.xlsx
@@ -486,17 +486,13 @@
         <v>8.920000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -525,22 +521,14 @@
         <v>8.918000000000005</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,22 +556,14 @@
         <v>8.938000000000006</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -611,17 +591,13 @@
         <v>8.938000000000006</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -650,22 +626,14 @@
         <v>8.926000000000005</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -693,22 +661,14 @@
         <v>8.928000000000008</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -736,17 +696,13 @@
         <v>8.940000000000007</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -775,22 +731,14 @@
         <v>8.924000000000005</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -818,22 +766,14 @@
         <v>8.934000000000005</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,17 +801,13 @@
         <v>8.926000000000005</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.91</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -900,22 +836,14 @@
         <v>8.936000000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,22 +871,14 @@
         <v>8.938000000000006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -986,22 +906,14 @@
         <v>8.958000000000004</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1029,22 +941,14 @@
         <v>8.970000000000004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1072,22 +976,14 @@
         <v>8.998000000000005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1115,22 +1011,14 @@
         <v>9.064000000000004</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1046,14 @@
         <v>9.130000000000004</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1330,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1412,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1453,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1494,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1576,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1617,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1658,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1699,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1740,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1781,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1822,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1863,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1904,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1945,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1986,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2027,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2068,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2109,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2150,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2191,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2232,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2314,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2396,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2437,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2478,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2560,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2642,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2724,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2765,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2806,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2970,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3011,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3134,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3175,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3216,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3257,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3298,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3339,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3421,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3462,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3544,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3585,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3626,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3667,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3708,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3749,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3790,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3831,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3872,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3913,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3995,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4036,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4077,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4118,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4159,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4200,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4241,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4323,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4364,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4405,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4446,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4487,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4528,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4569,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4610,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4733,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4774,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4815,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4897,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4938,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4979,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5020,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5061,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5102,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5137,22 +4441,14 @@
         <v>8.911999999999983</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="K116" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5180,22 +4476,14 @@
         <v>8.907999999999983</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="K117" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5223,22 +4511,14 @@
         <v>8.905999999999983</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K118" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5272,16 +4552,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="K119" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>8.9</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +4594,11 @@
         <v>8.91</v>
       </c>
       <c r="K120" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -5358,14 +4634,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>8.970000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="K121" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -5401,14 +4677,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>9.06</v>
+        <v>8.91</v>
       </c>
       <c r="K122" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -5438,16 +4714,14 @@
         <v>8.969999999999985</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>9.06</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5481,16 +4755,14 @@
         <v>8.999999999999986</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>9.06</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5524,14 +4796,16 @@
         <v>8.999999999999986</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9.06</v>
+      </c>
       <c r="K125" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5572,7 +4846,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5606,16 +4880,14 @@
         <v>9.011999999999986</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>8.970000000000001</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5656,7 +4928,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5697,7 +4969,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5738,7 +5010,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5772,16 +5044,14 @@
         <v>8.963999999999986</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>8.960000000000001</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5815,16 +5085,14 @@
         <v>8.963999999999986</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>8.970000000000001</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5858,16 +5126,14 @@
         <v>8.961999999999986</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>8.970000000000001</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5901,16 +5167,14 @@
         <v>8.963999999999986</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>8.960000000000001</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5944,16 +5208,14 @@
         <v>8.971999999999985</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5987,16 +5249,14 @@
         <v>8.993999999999986</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6037,7 +5297,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6078,7 +5338,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6119,7 +5379,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6160,7 +5420,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6201,7 +5461,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6242,7 +5502,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6283,7 +5543,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6324,7 +5584,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6365,7 +5625,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6406,7 +5666,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6447,7 +5707,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6488,7 +5748,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6529,7 +5789,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6570,7 +5830,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6611,7 +5871,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6652,7 +5912,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6693,7 +5953,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6727,16 +5987,14 @@
         <v>8.947999999999983</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>8.94</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6770,16 +6028,14 @@
         <v>8.957999999999981</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6813,16 +6069,14 @@
         <v>8.979999999999981</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6856,16 +6110,14 @@
         <v>8.989999999999982</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>8.99</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6906,7 +6158,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6947,7 +6199,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6988,7 +6240,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7029,7 +6281,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7070,7 +6322,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7111,7 +6363,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7152,7 +6404,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7193,7 +6445,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7234,7 +6486,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7275,7 +6527,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7309,16 +6561,14 @@
         <v>8.95999999999998</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7352,16 +6602,14 @@
         <v>8.95999999999998</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>9</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7395,16 +6643,14 @@
         <v>8.957999999999979</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7438,16 +6684,14 @@
         <v>8.955999999999978</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>8.99</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7481,16 +6725,14 @@
         <v>8.953999999999976</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>8.99</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7524,16 +6766,14 @@
         <v>8.943999999999978</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7567,16 +6807,14 @@
         <v>8.955999999999978</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7610,16 +6848,14 @@
         <v>8.969999999999978</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7653,16 +6889,14 @@
         <v>8.985999999999979</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7696,16 +6930,14 @@
         <v>9.00399999999998</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>9.029999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7739,16 +6971,14 @@
         <v>9.01599999999998</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7789,7 +7019,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7830,7 +7060,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7871,7 +7101,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7912,7 +7142,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7953,7 +7183,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7994,7 +7224,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -8035,7 +7265,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8076,7 +7306,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8117,7 +7347,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8158,7 +7388,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8199,7 +7429,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8240,7 +7470,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8281,7 +7511,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8322,7 +7552,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8363,7 +7593,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8404,7 +7634,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8445,7 +7675,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8486,7 +7716,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8527,7 +7757,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8568,7 +7798,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8609,7 +7839,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8650,7 +7880,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8691,7 +7921,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8732,7 +7962,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8773,7 +8003,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8814,7 +8044,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8855,7 +8085,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -8896,7 +8126,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -8937,7 +8167,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -8978,7 +8208,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -9019,7 +8249,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -9060,7 +8290,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -9101,7 +8331,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -9142,7 +8372,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -9183,7 +8413,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -9224,7 +8454,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -9265,7 +8495,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9306,7 +8536,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9347,7 +8577,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9388,7 +8618,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9429,7 +8659,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9470,7 +8700,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9511,7 +8741,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9552,7 +8782,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9593,7 +8823,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9634,7 +8864,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9675,7 +8905,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9716,7 +8946,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9757,7 +8987,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9791,16 +9021,14 @@
         <v>8.821999999999978</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9834,16 +9062,14 @@
         <v>8.791999999999978</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>8.789999999999999</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9877,16 +9103,14 @@
         <v>8.815999999999979</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -9929,7 +9153,7 @@
         <v>8.92</v>
       </c>
       <c r="K231" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -9972,7 +9196,7 @@
         <v>8.92</v>
       </c>
       <c r="K232" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -10006,16 +9230,14 @@
         <v>8.893999999999981</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>8.92</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -10049,16 +9271,14 @@
         <v>8.911999999999981</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>8.91</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -10092,16 +9312,14 @@
         <v>8.911999999999981</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -10135,16 +9353,14 @@
         <v>8.911999999999981</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -10178,16 +9394,14 @@
         <v>8.911999999999981</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>8.92</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -10221,16 +9435,14 @@
         <v>8.907999999999982</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>8.91</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10264,16 +9476,14 @@
         <v>8.901999999999981</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>8.890000000000001</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10307,16 +9517,14 @@
         <v>8.901999999999981</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>8.92</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10350,16 +9558,14 @@
         <v>8.88799999999998</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>8.85</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10393,16 +9599,14 @@
         <v>8.88799999999998</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>8.92</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10436,16 +9640,14 @@
         <v>8.877999999999982</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>8.85</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -10479,16 +9681,14 @@
         <v>8.883999999999983</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -10522,16 +9722,14 @@
         <v>8.867999999999981</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>8.85</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10565,16 +9763,14 @@
         <v>8.861999999999981</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>8.84</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10608,16 +9804,14 @@
         <v>8.853999999999981</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>8.82</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10651,16 +9845,14 @@
         <v>8.859999999999982</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10694,16 +9886,14 @@
         <v>8.84999999999998</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10737,16 +9927,14 @@
         <v>8.84399999999998</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>8.82</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10780,16 +9968,14 @@
         <v>8.86599999999998</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10823,16 +10009,14 @@
         <v>8.871999999999979</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>8.91</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10866,16 +10050,14 @@
         <v>8.875999999999978</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>8.91</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10909,16 +10091,14 @@
         <v>8.887999999999979</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>8.890000000000001</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -10952,16 +10132,14 @@
         <v>8.899999999999977</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -10995,16 +10173,14 @@
         <v>8.893999999999977</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -11038,16 +10214,14 @@
         <v>8.887999999999977</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -11081,16 +10255,14 @@
         <v>8.887999999999977</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -11124,16 +10296,14 @@
         <v>8.889999999999976</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -11167,16 +10337,14 @@
         <v>8.905999999999976</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -11210,16 +10378,14 @@
         <v>8.915999999999976</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>8.949999999999999</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -11253,16 +10419,14 @@
         <v>8.957999999999974</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>9.09</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -11296,16 +10460,14 @@
         <v>8.985999999999974</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>9.039999999999999</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -11339,16 +10501,14 @@
         <v>8.991999999999974</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -11382,16 +10542,14 @@
         <v>9.007999999999976</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>9.029999999999999</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -11425,16 +10583,14 @@
         <v>9.029999999999976</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -11468,16 +10624,14 @@
         <v>9.023999999999976</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>9.07</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -11511,16 +10665,14 @@
         <v>9.023999999999976</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>9.050000000000001</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11561,7 +10713,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11602,7 +10754,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11643,7 +10795,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11684,7 +10836,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11725,7 +10877,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11766,7 +10918,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11807,7 +10959,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11848,7 +11000,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11889,7 +11041,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11930,7 +11082,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -11971,7 +11123,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -12012,7 +11164,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -12053,7 +11205,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -12094,7 +11246,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -12135,7 +11287,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -12176,7 +11328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -12217,7 +11369,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12258,7 +11410,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12299,7 +11451,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12340,7 +11492,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -12381,7 +11533,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -12422,7 +11574,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -12463,7 +11615,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12504,7 +11656,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12545,7 +11697,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12586,7 +11738,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12627,7 +11779,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12668,7 +11820,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12709,7 +11861,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12750,7 +11902,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12791,7 +11943,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12832,7 +11984,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12873,7 +12025,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12914,7 +12066,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12955,7 +12107,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -12996,7 +12148,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -13037,7 +12189,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -13078,7 +12230,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -13119,7 +12271,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -13160,7 +12312,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13201,7 +12353,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13242,7 +12394,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13283,7 +12435,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -13324,7 +12476,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -13365,7 +12517,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -13406,7 +12558,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -13447,7 +12599,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -13488,7 +12640,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -13529,7 +12681,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13570,7 +12722,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13611,7 +12763,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13652,7 +12804,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13693,7 +12845,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13734,7 +12886,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -13775,7 +12927,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13812,19 +12964,19 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>1.044382716049383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -13853,11 +13005,17 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13888,11 +13046,17 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13926,8 +13090,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13958,11 +13128,17 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13996,8 +13172,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -14028,11 +13210,17 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -14066,8 +13254,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -14101,10 +13295,16 @@
         <v>1</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M332" t="n">
-        <v>1</v>
+        <v>1.065786516853933</v>
       </c>
     </row>
     <row r="333">
@@ -14133,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -14168,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -14798,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest DVP.xlsx
+++ b/BackTest/2019-10-26 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3586,7 +3586,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-467115.2191951143</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-467105.2191951143</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-429200.4312469423</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -10615,14 +10615,10 @@
         <v>-5773148.763083682</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="J310" t="n">
-        <v>8.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
@@ -10652,19 +10648,11 @@
         <v>-5773365.597983683</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J311" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10693,19 +10681,11 @@
         <v>-6160019.822683683</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J312" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10767,1881 +10747,1619 @@
         <v>-6160228.710683683</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>8.890000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C315" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D315" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E315" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F315" t="n">
+        <v>44.4444</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-6160184.266283683</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C316" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D316" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E316" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F316" t="n">
+        <v>44.444</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-6160228.710283683</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C317" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D317" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E317" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F317" t="n">
+        <v>92204.0194</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-6068024.690883683</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C318" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D318" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E318" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F318" t="n">
+        <v>300063.3017</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-6068024.690883683</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="C319" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D319" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E319" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F319" t="n">
+        <v>753.2670772676372</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-6067271.423806415</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="C320" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D320" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E320" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F320" t="n">
+        <v>9989</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-6067271.423806415</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C321" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D321" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E321" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F321" t="n">
+        <v>169435.3768</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-5897836.047006415</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C322" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D322" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E322" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="F322" t="n">
+        <v>331.4917</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-5898167.538706415</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="C323" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="D323" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E323" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F323" t="n">
+        <v>19706.546</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-5917874.084706415</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C324" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D324" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E324" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F324" t="n">
+        <v>10</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-5917864.084706415</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="C325" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D325" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="E325" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F325" t="n">
+        <v>318311.973</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-5599552.111706415</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C326" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="D326" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E326" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-5599552.111706415</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="C327" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D327" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E327" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="F327" t="n">
+        <v>40864.0004</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-5640416.112106415</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C328" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D328" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E328" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F328" t="n">
+        <v>10</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-5640406.112106415</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="C329" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D329" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="E329" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F329" t="n">
+        <v>56823.2216</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-5640406.112106415</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="C330" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D330" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E330" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2159.6714</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-5642565.783506416</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C331" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D331" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E331" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33936.3982</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-5676502.181706415</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C332" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="D332" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E332" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F332" t="n">
+        <v>276.1852</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-5676225.996506415</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C333" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="D333" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E333" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F333" t="n">
+        <v>873</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-5676225.996506415</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C334" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D334" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E334" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2010.4862</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-5674215.510306415</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C335" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D335" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E335" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F335" t="n">
+        <v>667.0703999999999</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-5674215.510306415</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C336" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D336" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E336" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F336" t="n">
+        <v>13929.8458</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-5674215.510306415</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C337" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="D337" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E337" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F337" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-5679215.510306415</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C338" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D338" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E338" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F338" t="n">
+        <v>11</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-5679204.510306415</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C339" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D339" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E339" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F339" t="n">
+        <v>124974.812101978</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-5804179.322408393</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C340" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D340" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E340" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2784.4504</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-5801394.872008393</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C341" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="D341" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E341" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="F341" t="n">
+        <v>98783.3545</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-5900178.226508393</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C342" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D342" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E342" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F342" t="n">
+        <v>10</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-5900168.226508393</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J342" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C343" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D343" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E343" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F343" t="n">
+        <v>11.4925</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-5900179.719008393</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C344" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D344" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E344" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F344" t="n">
+        <v>98279.5604</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-5801900.158608393</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J344" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C345" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F345" t="n">
+        <v>10</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-5801890.158608393</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="C346" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D346" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E346" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="F346" t="n">
+        <v>37061.90998902305</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-5764828.24861937</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="C347" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D347" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E347" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="F347" t="n">
+        <v>4381.038208998926</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-5764828.24861937</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="C348" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D348" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E348" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F348" t="n">
+        <v>55690.83508745911</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-5709137.413531911</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D349" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E349" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F349" t="n">
+        <v>48012.9825</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-5709137.413531911</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="C350" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D350" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E350" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F350" t="n">
+        <v>29747.1919</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-5709137.413531911</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="C351" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D351" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E351" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F351" t="n">
+        <v>19.8473</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-5709137.413531911</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="C352" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D352" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E352" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="F352" t="n">
+        <v>19295.3107</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-5709137.413531911</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="C353" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D353" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E353" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-5710337.413531911</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="C354" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D354" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E354" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="F354" t="n">
+        <v>43110</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-5753447.413531911</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="C355" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D355" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E355" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F355" t="n">
+        <v>31297.9762</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-5722149.43733191</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="C356" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D356" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E356" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F356" t="n">
+        <v>13252.4357</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-5708897.00163191</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="C357" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D357" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="E357" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F357" t="n">
+        <v>25176.0655</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-5683720.93613191</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="C358" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D358" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="E358" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F358" t="n">
+        <v>242217.3631</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-5925938.29923191</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="C359" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D359" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E359" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F359" t="n">
+        <v>210383.9573</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-5715554.34193191</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="C360" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D360" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E360" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F360" t="n">
+        <v>150580.7851</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-5564973.55683191</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D361" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="E361" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>269088.141</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-5834061.69783191</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C362" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="D362" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="E362" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F362" t="n">
+        <v>200209.0245</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-5633852.67333191</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C315" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D315" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E315" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F315" t="n">
-        <v>44.4444</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-6160184.266283683</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C316" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D316" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E316" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F316" t="n">
-        <v>44.444</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-6160228.710283683</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C317" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D317" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E317" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F317" t="n">
-        <v>92204.0194</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-6068024.690883683</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C318" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D318" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E318" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F318" t="n">
-        <v>300063.3017</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-6068024.690883683</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="C319" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D319" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E319" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F319" t="n">
-        <v>753.2670772676372</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-6067271.423806415</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="C320" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D320" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E320" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F320" t="n">
-        <v>9989</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-6067271.423806415</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C321" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D321" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E321" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="F321" t="n">
-        <v>169435.3768</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-5897836.047006415</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="C322" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D322" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="E322" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="F322" t="n">
-        <v>331.4917</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-5898167.538706415</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="C323" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D323" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E323" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F323" t="n">
-        <v>19706.546</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-5917874.084706415</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C324" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D324" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E324" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F324" t="n">
-        <v>10</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-5917864.084706415</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C325" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="D325" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="E325" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="F325" t="n">
-        <v>318311.973</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-5599552.111706415</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C326" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="D326" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="E326" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1009</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-5599552.111706415</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="C327" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D327" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="E327" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="F327" t="n">
-        <v>40864.0004</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-5640416.112106415</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="C328" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D328" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E328" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F328" t="n">
-        <v>10</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-5640406.112106415</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="C329" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D329" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="E329" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F329" t="n">
-        <v>56823.2216</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-5640406.112106415</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="C330" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="D330" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="E330" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F330" t="n">
-        <v>2159.6714</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-5642565.783506416</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C331" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D331" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E331" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="F331" t="n">
-        <v>33936.3982</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-5676502.181706415</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C332" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D332" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="E332" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F332" t="n">
-        <v>276.1852</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-5676225.996506415</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C333" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D333" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="E333" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F333" t="n">
-        <v>873</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-5676225.996506415</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C334" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D334" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E334" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F334" t="n">
-        <v>2010.4862</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-5674215.510306415</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C335" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D335" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E335" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F335" t="n">
-        <v>667.0703999999999</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-5674215.510306415</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C336" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D336" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E336" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F336" t="n">
-        <v>13929.8458</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-5674215.510306415</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C337" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D337" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="E337" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F337" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-5679215.510306415</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C338" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D338" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E338" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F338" t="n">
-        <v>11</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-5679204.510306415</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C339" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D339" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E339" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F339" t="n">
-        <v>124974.812101978</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-5804179.322408393</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C340" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D340" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E340" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F340" t="n">
-        <v>2784.4504</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-5801394.872008393</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="C341" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="D341" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="E341" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="F341" t="n">
-        <v>98783.3545</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-5900178.226508393</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C342" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D342" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E342" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F342" t="n">
-        <v>10</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-5900168.226508393</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C343" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D343" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E343" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F343" t="n">
-        <v>11.4925</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-5900179.719008393</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C344" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D344" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E344" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F344" t="n">
-        <v>98279.5604</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-5801900.158608393</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="C345" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D345" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E345" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F345" t="n">
-        <v>10</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-5801890.158608393</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="C346" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D346" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E346" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F346" t="n">
-        <v>37061.90998902305</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-5764828.24861937</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="C347" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D347" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E347" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F347" t="n">
-        <v>4381.038208998926</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-5764828.24861937</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C348" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D348" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E348" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F348" t="n">
-        <v>55690.83508745911</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-5709137.413531911</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="C349" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D349" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E349" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="F349" t="n">
-        <v>48012.9825</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-5709137.413531911</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="C350" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D350" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E350" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="F350" t="n">
-        <v>29747.1919</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-5709137.413531911</v>
-      </c>
-      <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="C351" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D351" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E351" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="F351" t="n">
-        <v>19.8473</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-5709137.413531911</v>
-      </c>
-      <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="C352" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D352" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E352" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="F352" t="n">
-        <v>19295.3107</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-5709137.413531911</v>
-      </c>
-      <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="C353" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D353" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="E353" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F353" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-5710337.413531911</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="C354" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D354" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E354" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="F354" t="n">
-        <v>43110</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-5753447.413531911</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="C355" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D355" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E355" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F355" t="n">
-        <v>31297.9762</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-5722149.43733191</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="C356" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D356" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="E356" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F356" t="n">
-        <v>13252.4357</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-5708897.00163191</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="C357" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D357" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E357" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F357" t="n">
-        <v>25176.0655</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-5683720.93613191</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="C358" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D358" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E358" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F358" t="n">
-        <v>242217.3631</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-5925938.29923191</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="C359" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D359" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="E359" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F359" t="n">
-        <v>210383.9573</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-5715554.34193191</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="C360" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D360" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="E360" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F360" t="n">
-        <v>150580.7851</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-5564973.55683191</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="C361" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D361" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="E361" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F361" t="n">
-        <v>269088.141</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-5834061.69783191</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="C362" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D362" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="E362" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F362" t="n">
-        <v>200209.0245</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-5633852.67333191</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12670,11 +12388,9 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>9.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12709,11 +12425,9 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>9.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12748,11 +12462,9 @@
         <v>-5641086.70273191</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>9.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13138,11 +12850,9 @@
         <v>-4739168.41753191</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>9.289999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13253,11 +12963,9 @@
         <v>-4739168.41753191</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>9.289999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13292,11 +13000,9 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>9.289999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13331,11 +13037,9 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>9.380000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13370,11 +13074,9 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>9.380000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13409,20 +13111,16 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>9.380000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
@@ -13448,17 +13146,11 @@
         <v>-4628869.863931911</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>9.380000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13487,17 +13179,11 @@
         <v>-4634966.844631911</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>9.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13526,17 +13212,11 @@
         <v>-4634781.130431911</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>9.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13565,17 +13245,11 @@
         <v>-4634792.130431911</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>9.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13604,17 +13278,11 @@
         <v>-4634792.130431911</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>9.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13643,17 +13311,11 @@
         <v>-3793277.689231911</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>9.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13682,15 +13344,11 @@
         <v>-3759574.871631911</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13723,11 +13381,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13760,11 +13414,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13797,11 +13447,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13834,11 +13480,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13871,11 +13513,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13908,11 +13546,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13945,11 +13579,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13982,11 +13612,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14015,15 +13641,11 @@
         <v>-3832076.92253191</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14056,11 +13678,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14089,15 +13707,11 @@
         <v>-3814261.83243191</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14126,15 +13740,11 @@
         <v>-3354054.90243191</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14167,11 +13777,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14204,11 +13810,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +13843,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +13876,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14315,11 +13909,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14352,11 +13942,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14389,11 +13975,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14426,11 +14008,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14463,11 +14041,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14500,11 +14074,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14537,11 +14107,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14574,11 +14140,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14607,16 +14169,14 @@
         <v>-2923198.87923191</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
       <c r="M414" t="inlineStr"/>
     </row>
     <row r="415">
@@ -14642,7 +14202,7 @@
         <v>-2943937.62663191</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14675,7 +14235,7 @@
         <v>-2637562.008131911</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14708,7 +14268,7 @@
         <v>-2859147.818031911</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14741,7 +14301,7 @@
         <v>-2859147.818031911</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14774,7 +14334,7 @@
         <v>-2859147.818031911</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14807,7 +14367,7 @@
         <v>-2762082.343131911</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14840,7 +14400,7 @@
         <v>-2922789.356231911</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14873,7 +14433,7 @@
         <v>-2919529.789231911</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14906,7 +14466,7 @@
         <v>-2910309.922031911</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14939,7 +14499,7 @@
         <v>-3575223.619031911</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14972,7 +14532,7 @@
         <v>-4202821.676931911</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15005,7 +14565,7 @@
         <v>-4382333.069131911</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15038,7 +14598,7 @@
         <v>-5050222.966731911</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15071,7 +14631,7 @@
         <v>-5050222.966731911</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15104,7 +14664,7 @@
         <v>-5064008.481431911</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15137,7 +14697,7 @@
         <v>-5024008.481431911</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15170,7 +14730,7 @@
         <v>-5024571.847631911</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15203,7 +14763,7 @@
         <v>-5321472.074531911</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15236,7 +14796,7 @@
         <v>-6016860.920531911</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15467,7 +15027,7 @@
         <v>-5554099.04353191</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15500,7 +15060,7 @@
         <v>-5554099.04353191</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15533,7 +15093,7 @@
         <v>-5554099.04353191</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15566,7 +15126,7 @@
         <v>-5554099.04353191</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15599,7 +15159,7 @@
         <v>-5540558.651131909</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15632,7 +15192,7 @@
         <v>-5546279.380231909</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15665,7 +15225,7 @@
         <v>-5553473.01273191</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15698,7 +15258,7 @@
         <v>-5553463.01273191</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15731,7 +15291,7 @@
         <v>-5558313.577131909</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15764,7 +15324,7 @@
         <v>-5553586.868431909</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15797,7 +15357,7 @@
         <v>-5558357.318831909</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15830,7 +15390,7 @@
         <v>-5692042.591331909</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15863,7 +15423,7 @@
         <v>-5671716.811331909</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15929,7 +15489,7 @@
         <v>-5671716.811331909</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15962,7 +15522,7 @@
         <v>-5441621.856831909</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15995,7 +15555,7 @@
         <v>-5569121.856831909</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16061,7 +15621,7 @@
         <v>-5565869.736631909</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17029,6 +16589,6 @@
       <c r="M487" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest DVP.xlsx
+++ b/BackTest/2019-10-26 BackTest DVP.xlsx
@@ -3586,7 +3586,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-467115.2191951143</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-467105.2191951143</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-429200.4312469423</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -11341,10 +11341,14 @@
         <v>-5676225.996506415</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J332" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
@@ -11377,8 +11381,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +11417,19 @@
         <v>-5674215.510306415</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="J334" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11473,10 +11491,14 @@
         <v>-5674215.510306415</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J336" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11506,11 +11528,19 @@
         <v>-5679215.510306415</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J337" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11569,19 @@
         <v>-5679204.510306415</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="J338" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11610,19 @@
         <v>-5804179.322408393</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J339" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11651,19 @@
         <v>-5801394.872008393</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J340" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11692,19 @@
         <v>-5900178.226508393</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J341" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11677,9 +11739,13 @@
         <v>9.02</v>
       </c>
       <c r="J342" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K342" t="inlineStr"/>
+        <v>9.08</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,15 +11774,17 @@
         <v>-5900179.719008393</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>9.08</v>
+      </c>
       <c r="J343" t="n">
-        <v>9.02</v>
+        <v>9.08</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -11753,11 +11821,11 @@
         <v>9.029999999999999</v>
       </c>
       <c r="J344" t="n">
-        <v>9.02</v>
+        <v>9.08</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -11788,11 +11856,19 @@
         <v>-5801890.158608393</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J345" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11821,11 +11897,19 @@
         <v>-5764828.24861937</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J346" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11854,11 +11938,19 @@
         <v>-5764828.24861937</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J347" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11887,11 +11979,19 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J348" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11920,11 +12020,19 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J349" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11953,11 +12061,19 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J350" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +12102,19 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J351" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +12143,19 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J352" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12052,11 +12184,19 @@
         <v>-5710337.413531911</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J353" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12085,11 +12225,19 @@
         <v>-5753447.413531911</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="J354" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12118,11 +12266,19 @@
         <v>-5722149.43733191</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J355" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12151,11 +12307,19 @@
         <v>-5708897.00163191</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J356" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12184,11 +12348,19 @@
         <v>-5683720.93613191</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="J357" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +12389,19 @@
         <v>-5925938.29923191</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="J358" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12250,11 +12430,19 @@
         <v>-5715554.34193191</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="J359" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12283,11 +12471,19 @@
         <v>-5564973.55683191</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="J360" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +12512,19 @@
         <v>-5834061.69783191</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J361" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12354,10 +12558,12 @@
       <c r="I362" t="n">
         <v>9.109999999999999</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12388,10 +12594,14 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="J363" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12425,10 +12635,14 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="J364" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12462,10 +12676,14 @@
         <v>-5641086.70273191</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="J365" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12504,7 +12722,9 @@
       <c r="I366" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12543,7 +12763,9 @@
       <c r="I367" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12582,7 +12804,9 @@
       <c r="I368" t="n">
         <v>9.210000000000001</v>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12621,7 +12845,9 @@
       <c r="I369" t="n">
         <v>9.16</v>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12660,7 +12886,9 @@
       <c r="I370" t="n">
         <v>9.16</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12699,7 +12927,9 @@
       <c r="I371" t="n">
         <v>9.19</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12738,7 +12968,9 @@
       <c r="I372" t="n">
         <v>9.19</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12777,7 +13009,9 @@
       <c r="I373" t="n">
         <v>9.15</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12816,7 +13050,9 @@
       <c r="I374" t="n">
         <v>9.18</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12853,7 +13089,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12890,7 +13128,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12924,12 +13164,12 @@
         <v>-4739168.41753191</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12966,7 +13206,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13003,7 +13245,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13040,7 +13284,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13077,7 +13323,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>9.08</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,908 +13359,1076 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="C383" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D383" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="E383" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="F383" t="n">
+        <v>6958.5426</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-4628869.863931911</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="C384" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D384" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="E384" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F384" t="n">
+        <v>6096.9807</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-4634966.844631911</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="C385" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D385" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="E385" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="F385" t="n">
+        <v>185.7142</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-4634781.130431911</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C386" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D386" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="E386" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="F386" t="n">
+        <v>11</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-4634792.130431911</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C387" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D387" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="E387" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="F387" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-4634792.130431911</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="C388" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D388" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E388" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F388" t="n">
+        <v>841514.4412</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-3793277.689231911</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C389" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="D389" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E389" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F389" t="n">
+        <v>33702.8176</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-3759574.871631911</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C390" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D390" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E390" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="F390" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-3759587.53863191</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="C391" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D391" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E391" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1022.7262</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-3759587.53863191</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C392" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="D392" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E392" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="F392" t="n">
+        <v>11</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-3759587.53863191</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C393" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D393" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="E393" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F393" t="n">
+        <v>5010.486</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-3764598.02463191</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C394" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="D394" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="E394" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F394" t="n">
+        <v>70439.7182</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-3835037.74283191</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="C395" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D395" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="E395" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="F395" t="n">
+        <v>43055.0476</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-3878092.790431911</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="C396" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D396" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E396" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F396" t="n">
+        <v>100</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-3877992.790431911</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C397" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D397" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E397" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F397" t="n">
+        <v>48041.3713</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-3829951.41913191</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="C398" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D398" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E398" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F398" t="n">
+        <v>2125.5034</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-3832076.92253191</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C399" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D399" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E399" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F399" t="n">
+        <v>11</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-3832065.92253191</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C400" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D400" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E400" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F400" t="n">
+        <v>17804.0901</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-3814261.83243191</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C401" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="D401" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E401" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F401" t="n">
+        <v>460206.93</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-3354054.90243191</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C402" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D402" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E402" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F402" t="n">
+        <v>48411</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-3402465.90243191</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C403" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D403" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="E403" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F403" t="n">
+        <v>13450.7322</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-3415916.63463191</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C404" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D404" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E404" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2139.3684</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-3418056.00303191</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C405" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D405" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E405" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F405" t="n">
+        <v>870</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-3417186.00303191</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C406" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D406" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="E406" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F406" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-3409186.00303191</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C407" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D407" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E407" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F407" t="n">
+        <v>1087526.6864</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-2321659.31663191</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C408" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D408" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E408" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F408" t="n">
+        <v>617708.1503</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-1703951.16633191</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C409" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D409" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E409" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="F409" t="n">
+        <v>311</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-1704262.16633191</v>
+      </c>
+      <c r="H409" t="n">
         <v>2</v>
       </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="K409" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L382" t="inlineStr"/>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="C383" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="D383" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="E383" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="F383" t="n">
-        <v>6958.5426</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-4628869.863931911</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="C384" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="D384" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="E384" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F384" t="n">
-        <v>6096.9807</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-4634966.844631911</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="C385" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="D385" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="E385" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="F385" t="n">
-        <v>185.7142</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-4634781.130431911</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C386" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D386" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E386" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F386" t="n">
-        <v>11</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-4634792.130431911</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C387" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D387" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E387" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F387" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-4634792.130431911</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="C388" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="D388" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E388" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F388" t="n">
-        <v>841514.4412</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-3793277.689231911</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C389" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="D389" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E389" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="F389" t="n">
-        <v>33702.8176</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-3759574.871631911</v>
-      </c>
-      <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="C390" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D390" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="E390" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="F390" t="n">
-        <v>12.667</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-3759587.53863191</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="C391" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D391" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="E391" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="F391" t="n">
-        <v>1022.7262</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-3759587.53863191</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="C392" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D392" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="E392" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="F392" t="n">
-        <v>11</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-3759587.53863191</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C393" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="D393" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="E393" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F393" t="n">
-        <v>5010.486</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-3764598.02463191</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C394" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="D394" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="E394" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F394" t="n">
-        <v>70439.7182</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-3835037.74283191</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="C395" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="D395" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="E395" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="F395" t="n">
-        <v>43055.0476</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-3878092.790431911</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="C396" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="D396" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="E396" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F396" t="n">
-        <v>100</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-3877992.790431911</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C397" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D397" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E397" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F397" t="n">
-        <v>48041.3713</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-3829951.41913191</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="C398" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="D398" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="E398" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F398" t="n">
-        <v>2125.5034</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-3832076.92253191</v>
-      </c>
-      <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C399" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D399" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E399" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F399" t="n">
-        <v>11</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-3832065.92253191</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C400" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D400" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E400" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F400" t="n">
-        <v>17804.0901</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-3814261.83243191</v>
-      </c>
-      <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C401" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="D401" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E401" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F401" t="n">
-        <v>460206.93</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-3354054.90243191</v>
-      </c>
-      <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="C402" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="D402" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="E402" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F402" t="n">
-        <v>48411</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-3402465.90243191</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C403" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="D403" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E403" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="F403" t="n">
-        <v>13450.7322</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-3415916.63463191</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C404" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D404" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E404" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F404" t="n">
-        <v>2139.3684</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-3418056.00303191</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C405" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D405" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E405" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F405" t="n">
-        <v>870</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-3417186.00303191</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="C406" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="D406" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E406" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="F406" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-3409186.00303191</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C407" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D407" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E407" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="F407" t="n">
-        <v>1087526.6864</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-2321659.31663191</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="C408" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D408" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E408" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F408" t="n">
-        <v>617708.1503</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-1703951.16633191</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="C409" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D409" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="E409" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="F409" t="n">
-        <v>311</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-1704262.16633191</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
+        <v>1.085308370044053</v>
+      </c>
+      <c r="M409" t="n">
+        <v>1.072810011376564</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -14037,7 +14453,7 @@
         <v>-1692329.78253191</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14070,7 +14486,7 @@
         <v>-1764314.04153191</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14103,7 +14519,7 @@
         <v>-1764314.04153191</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14136,7 +14552,7 @@
         <v>-1868328.54433191</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14169,7 +14585,7 @@
         <v>-2923198.87923191</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14202,7 +14618,7 @@
         <v>-2943937.62663191</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14235,7 +14651,7 @@
         <v>-2637562.008131911</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14400,7 +14816,7 @@
         <v>-2922789.356231911</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14433,7 +14849,7 @@
         <v>-2919529.789231911</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14829,7 +15245,7 @@
         <v>-6016860.920531911</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14862,7 +15278,7 @@
         <v>-5979324.33253191</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14895,7 +15311,7 @@
         <v>-5574521.58333191</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14928,7 +15344,7 @@
         <v>-5573534.90973191</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14961,7 +15377,7 @@
         <v>-5580087.16573191</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14994,7 +15410,7 @@
         <v>-5579987.16573191</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
